--- a/biology/Botanique/Foeniculum/Foeniculum.xlsx
+++ b/biology/Botanique/Foeniculum/Foeniculum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Foeniculum est un genre végétal de la famille des Apiaceae (Umbelliferae), qui contient peu d'espèces. Le nom Foeniculum est dérivé du latin feniculum, fœniculum, diminutif de fenum, fœnum, le foin.
 Foeniculum est un genre de fenouils mais tous les fenouils n'appartiennent pas à ce genre. Aussi, malgré leur nom vernaculaire, le fenouil bâtard ou le fenouil des Alpes par exemple, ne sont pas des Foeniculum.
@@ -512,7 +524,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Foeniculum vulgare Mill.
 Foeniculum vulgare Mill. subsp. piperitum (Ucria) Cout., fenouil poivré présent dans le sud de la France.
@@ -547,7 +561,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Foeniculum se sont naturalisés le long des routes, dans les prés, ou dans de nombreux autres sites ouverts dans de nombreuses régions incluant l'Europe, l'Amérique du Nord, l'Asie et l'Australie. Il se propage par semence et est considéré comme une peste végétale en Australie et aux États-Unis.
 </t>
@@ -578,7 +594,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les fenouils étaient considérés[Quand ?] comme une des neuf herbes sacrées par les Anglo-Saxons[réf. nécessaire].
 </t>
